--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vcan-Selp.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vcan-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H2">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I2">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J2">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.0902710439126</v>
+        <v>33.0450625</v>
       </c>
       <c r="N2">
-        <v>32.0902710439126</v>
+        <v>66.090125</v>
       </c>
       <c r="O2">
-        <v>0.7017757580697982</v>
+        <v>0.6900618971508313</v>
       </c>
       <c r="P2">
-        <v>0.7017757580697982</v>
+        <v>0.5980240991764403</v>
       </c>
       <c r="Q2">
-        <v>149.9617456899343</v>
+        <v>168.1471899713125</v>
       </c>
       <c r="R2">
-        <v>149.9617456899343</v>
+        <v>672.5887598852501</v>
       </c>
       <c r="S2">
-        <v>0.0213889636234343</v>
+        <v>0.01480278252927304</v>
       </c>
       <c r="T2">
-        <v>0.0213889636234343</v>
+        <v>0.008791332702696626</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H3">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I3">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J3">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>13.6369725590517</v>
+        <v>0.195349</v>
       </c>
       <c r="N3">
-        <v>13.6369725590517</v>
+        <v>0.586047</v>
       </c>
       <c r="O3">
-        <v>0.2982242419302018</v>
+        <v>0.004079365912729557</v>
       </c>
       <c r="P3">
-        <v>0.2982242419302018</v>
+        <v>0.005302913699286471</v>
       </c>
       <c r="Q3">
-        <v>63.72723396703927</v>
+        <v>0.9940179539290001</v>
       </c>
       <c r="R3">
-        <v>63.72723396703927</v>
+        <v>5.964107723574</v>
       </c>
       <c r="S3">
-        <v>0.009089381314361294</v>
+        <v>8.750804342739432E-05</v>
       </c>
       <c r="T3">
-        <v>0.009089381314361294</v>
+        <v>7.795618719766756E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>118.955212101526</v>
+        <v>5.088421</v>
       </c>
       <c r="H4">
-        <v>118.955212101526</v>
+        <v>10.176842</v>
       </c>
       <c r="I4">
-        <v>0.775832115980427</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J4">
-        <v>0.775832115980427</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>32.0902710439126</v>
+        <v>0.2774586666666667</v>
       </c>
       <c r="N4">
-        <v>32.0902710439126</v>
+        <v>0.832376</v>
       </c>
       <c r="O4">
-        <v>0.7017757580697982</v>
+        <v>0.005794017000298915</v>
       </c>
       <c r="P4">
-        <v>0.7017757580697982</v>
+        <v>0.007531849993869563</v>
       </c>
       <c r="Q4">
-        <v>3817.304998424082</v>
+        <v>1.411826506098667</v>
       </c>
       <c r="R4">
-        <v>3817.304998424082</v>
+        <v>8.470959036592001</v>
       </c>
       <c r="S4">
-        <v>0.5444601713270597</v>
+        <v>0.0001242896818103681</v>
       </c>
       <c r="T4">
-        <v>0.5444601713270597</v>
+        <v>0.000110722961255404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>118.955212101526</v>
+        <v>5.088421</v>
       </c>
       <c r="H5">
-        <v>118.955212101526</v>
+        <v>10.176842</v>
       </c>
       <c r="I5">
-        <v>0.775832115980427</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J5">
-        <v>0.775832115980427</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.6369725590517</v>
+        <v>14.267144</v>
       </c>
       <c r="N5">
-        <v>13.6369725590517</v>
+        <v>42.801432</v>
       </c>
       <c r="O5">
-        <v>0.2982242419302018</v>
+        <v>0.2979329349298129</v>
       </c>
       <c r="P5">
-        <v>0.2982242419302018</v>
+        <v>0.3872936813973595</v>
       </c>
       <c r="Q5">
-        <v>1622.188963184685</v>
+        <v>72.597235139624</v>
       </c>
       <c r="R5">
-        <v>1622.188963184685</v>
+        <v>435.583410837744</v>
       </c>
       <c r="S5">
-        <v>0.2313719446533672</v>
+        <v>0.00639107370263932</v>
       </c>
       <c r="T5">
-        <v>0.2313719446533672</v>
+        <v>0.005693462205796188</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.735257962743979</v>
+        <v>5.088421</v>
       </c>
       <c r="H6">
-        <v>8.735257962743979</v>
+        <v>10.176842</v>
       </c>
       <c r="I6">
-        <v>0.05697180938222712</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J6">
-        <v>0.05697180938222712</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>32.0902710439126</v>
+        <v>0.102085</v>
       </c>
       <c r="N6">
-        <v>32.0902710439126</v>
+        <v>0.20417</v>
       </c>
       <c r="O6">
-        <v>0.7017757580697982</v>
+        <v>0.002131785006327121</v>
       </c>
       <c r="P6">
-        <v>0.7017757580697982</v>
+        <v>0.00184745573304414</v>
       </c>
       <c r="Q6">
-        <v>280.3167956629501</v>
+        <v>0.519451457785</v>
       </c>
       <c r="R6">
-        <v>280.3167956629501</v>
+        <v>2.07780583114</v>
       </c>
       <c r="S6">
-        <v>0.03998143471782047</v>
+        <v>4.572973812656092E-05</v>
       </c>
       <c r="T6">
-        <v>0.03998143471782047</v>
+        <v>2.715876839254836E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.735257962743979</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H7">
-        <v>8.735257962743979</v>
+        <v>380.699402</v>
       </c>
       <c r="I7">
-        <v>0.05697180938222712</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J7">
-        <v>0.05697180938222712</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.6369725590517</v>
+        <v>33.0450625</v>
       </c>
       <c r="N7">
-        <v>13.6369725590517</v>
+        <v>66.090125</v>
       </c>
       <c r="O7">
-        <v>0.2982242419302018</v>
+        <v>0.6900618971508313</v>
       </c>
       <c r="P7">
-        <v>0.2982242419302018</v>
+        <v>0.5980240991764403</v>
       </c>
       <c r="Q7">
-        <v>119.1224731341775</v>
+        <v>4193.411844267542</v>
       </c>
       <c r="R7">
-        <v>119.1224731341775</v>
+        <v>25160.47106560525</v>
       </c>
       <c r="S7">
-        <v>0.01699037466440664</v>
+        <v>0.3691656315931337</v>
       </c>
       <c r="T7">
-        <v>0.01699037466440664</v>
+        <v>0.3288697125001694</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,184 +906,184 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.66874455321943</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H8">
-        <v>6.66874455321943</v>
+        <v>380.699402</v>
       </c>
       <c r="I8">
-        <v>0.04349390082413048</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J8">
-        <v>0.04349390082413048</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>32.0902710439126</v>
+        <v>0.195349</v>
       </c>
       <c r="N8">
-        <v>32.0902710439126</v>
+        <v>0.586047</v>
       </c>
       <c r="O8">
-        <v>0.7017757580697982</v>
+        <v>0.004079365912729557</v>
       </c>
       <c r="P8">
-        <v>0.7017757580697982</v>
+        <v>0.005302913699286471</v>
       </c>
       <c r="Q8">
-        <v>214.0018202354273</v>
+        <v>24.78974916043267</v>
       </c>
       <c r="R8">
-        <v>214.0018202354273</v>
+        <v>223.107742443894</v>
       </c>
       <c r="S8">
-        <v>0.03052296522226679</v>
+        <v>0.00218235740864727</v>
       </c>
       <c r="T8">
-        <v>0.03052296522226679</v>
+        <v>0.002916216430239567</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.66874455321943</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H9">
-        <v>6.66874455321943</v>
+        <v>380.699402</v>
       </c>
       <c r="I9">
-        <v>0.04349390082413048</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J9">
-        <v>0.04349390082413048</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>13.6369725590517</v>
+        <v>0.2774586666666667</v>
       </c>
       <c r="N9">
-        <v>13.6369725590517</v>
+        <v>0.832376</v>
       </c>
       <c r="O9">
-        <v>0.2982242419302018</v>
+        <v>0.005794017000298915</v>
       </c>
       <c r="P9">
-        <v>0.2982242419302018</v>
+        <v>0.007531849993869563</v>
       </c>
       <c r="Q9">
-        <v>90.94148647557884</v>
+        <v>35.20944949323912</v>
       </c>
       <c r="R9">
-        <v>90.94148647557884</v>
+        <v>316.885045439152</v>
       </c>
       <c r="S9">
-        <v>0.01297093560186369</v>
+        <v>0.003099652298160694</v>
       </c>
       <c r="T9">
-        <v>0.01297093560186369</v>
+        <v>0.004141969103735861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.46868406203987</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H10">
-        <v>2.46868406203987</v>
+        <v>380.699402</v>
       </c>
       <c r="I10">
-        <v>0.01610088659171058</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J10">
-        <v>0.01610088659171058</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0902710439126</v>
+        <v>14.267144</v>
       </c>
       <c r="N10">
-        <v>32.0902710439126</v>
+        <v>42.801432</v>
       </c>
       <c r="O10">
-        <v>0.7017757580697982</v>
+        <v>0.2979329349298129</v>
       </c>
       <c r="P10">
-        <v>0.7017757580697982</v>
+        <v>0.3872936813973595</v>
       </c>
       <c r="Q10">
-        <v>79.22074067264657</v>
+        <v>1810.49772968263</v>
       </c>
       <c r="R10">
-        <v>79.22074067264657</v>
+        <v>16294.47956714366</v>
       </c>
       <c r="S10">
-        <v>0.01129921189349354</v>
+        <v>0.1593865717696914</v>
       </c>
       <c r="T10">
-        <v>0.01129921189349354</v>
+        <v>0.2129833259724588</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.46868406203987</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H11">
-        <v>2.46868406203987</v>
+        <v>380.699402</v>
       </c>
       <c r="I11">
-        <v>0.01610088659171058</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J11">
-        <v>0.01610088659171058</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>13.6369725590517</v>
+        <v>0.102085</v>
       </c>
       <c r="N11">
-        <v>13.6369725590517</v>
+        <v>0.20417</v>
       </c>
       <c r="O11">
-        <v>0.2982242419302018</v>
+        <v>0.002131785006327121</v>
       </c>
       <c r="P11">
-        <v>0.2982242419302018</v>
+        <v>0.00184745573304414</v>
       </c>
       <c r="Q11">
-        <v>33.66537681100598</v>
+        <v>12.95456615105667</v>
       </c>
       <c r="R11">
-        <v>33.66537681100598</v>
+        <v>77.72739690634</v>
       </c>
       <c r="S11">
-        <v>0.004801674698217038</v>
+        <v>0.001140450967559376</v>
       </c>
       <c r="T11">
-        <v>0.004801674698217038</v>
+        <v>0.001015966140193555</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.8249499708566</v>
+        <v>78.852752</v>
       </c>
       <c r="H12">
-        <v>11.8249499708566</v>
+        <v>236.558256</v>
       </c>
       <c r="I12">
-        <v>0.07712294228370911</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J12">
-        <v>0.07712294228370911</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.0902710439126</v>
+        <v>33.0450625</v>
       </c>
       <c r="N12">
-        <v>32.0902710439126</v>
+        <v>66.090125</v>
       </c>
       <c r="O12">
-        <v>0.7017757580697982</v>
+        <v>0.6900618971508313</v>
       </c>
       <c r="P12">
-        <v>0.7017757580697982</v>
+        <v>0.5980240991764403</v>
       </c>
       <c r="Q12">
-        <v>379.4658496454947</v>
+        <v>2605.694118137</v>
       </c>
       <c r="R12">
-        <v>379.4658496454947</v>
+        <v>15634.164708822</v>
       </c>
       <c r="S12">
-        <v>0.05412301128572326</v>
+        <v>0.2293914241157915</v>
       </c>
       <c r="T12">
-        <v>0.05412301128572326</v>
+        <v>0.2043524240688497</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>78.852752</v>
+      </c>
+      <c r="H13">
+        <v>236.558256</v>
+      </c>
+      <c r="I13">
+        <v>0.332421519088239</v>
+      </c>
+      <c r="J13">
+        <v>0.341712690759905</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.195349</v>
+      </c>
+      <c r="N13">
+        <v>0.586047</v>
+      </c>
+      <c r="O13">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P13">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q13">
+        <v>15.403806250448</v>
+      </c>
+      <c r="R13">
+        <v>138.634256254032</v>
+      </c>
+      <c r="S13">
+        <v>0.00135606901362634</v>
+      </c>
+      <c r="T13">
+        <v>0.001812072909050741</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>78.852752</v>
+      </c>
+      <c r="H14">
+        <v>236.558256</v>
+      </c>
+      <c r="I14">
+        <v>0.332421519088239</v>
+      </c>
+      <c r="J14">
+        <v>0.341712690759905</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.832376</v>
+      </c>
+      <c r="O14">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P14">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q14">
+        <v>21.87837943291733</v>
+      </c>
+      <c r="R14">
+        <v>196.905414896256</v>
+      </c>
+      <c r="S14">
+        <v>0.001926055932862447</v>
+      </c>
+      <c r="T14">
+        <v>0.002573728727805142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>78.852752</v>
+      </c>
+      <c r="H15">
+        <v>236.558256</v>
+      </c>
+      <c r="I15">
+        <v>0.332421519088239</v>
+      </c>
+      <c r="J15">
+        <v>0.341712690759905</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.267144</v>
+      </c>
+      <c r="N15">
+        <v>42.801432</v>
+      </c>
+      <c r="O15">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P15">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q15">
+        <v>1125.003567580288</v>
+      </c>
+      <c r="R15">
+        <v>10125.03210822259</v>
+      </c>
+      <c r="S15">
+        <v>0.09903931881578587</v>
+      </c>
+      <c r="T15">
+        <v>0.1323431659846011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>78.852752</v>
+      </c>
+      <c r="H16">
+        <v>236.558256</v>
+      </c>
+      <c r="I16">
+        <v>0.332421519088239</v>
+      </c>
+      <c r="J16">
+        <v>0.341712690759905</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.102085</v>
+      </c>
+      <c r="N16">
+        <v>0.20417</v>
+      </c>
+      <c r="O16">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P16">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q16">
+        <v>8.049683187919999</v>
+      </c>
+      <c r="R16">
+        <v>48.29809912752</v>
+      </c>
+      <c r="S16">
+        <v>0.0007086512101727928</v>
+      </c>
+      <c r="T16">
+        <v>0.0006312990695983256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>9.584972333333333</v>
+      </c>
+      <c r="H17">
+        <v>28.754917</v>
+      </c>
+      <c r="I17">
+        <v>0.04040760763131526</v>
+      </c>
+      <c r="J17">
+        <v>0.04153699907496669</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.0450625</v>
+      </c>
+      <c r="N17">
+        <v>66.090125</v>
+      </c>
+      <c r="O17">
+        <v>0.6900618971508313</v>
+      </c>
+      <c r="P17">
+        <v>0.5980240991764403</v>
+      </c>
+      <c r="Q17">
+        <v>316.7360098157708</v>
+      </c>
+      <c r="R17">
+        <v>1900.416058894625</v>
+      </c>
+      <c r="S17">
+        <v>0.02788375038139182</v>
+      </c>
+      <c r="T17">
+        <v>0.02484012645429959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>9.584972333333333</v>
+      </c>
+      <c r="H18">
+        <v>28.754917</v>
+      </c>
+      <c r="I18">
+        <v>0.04040760763131526</v>
+      </c>
+      <c r="J18">
+        <v>0.04153699907496669</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.195349</v>
+      </c>
+      <c r="N18">
+        <v>0.586047</v>
+      </c>
+      <c r="O18">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P18">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q18">
+        <v>1.872414760344333</v>
+      </c>
+      <c r="R18">
+        <v>16.851732843099</v>
+      </c>
+      <c r="S18">
+        <v>0.0001648374171861382</v>
+      </c>
+      <c r="T18">
+        <v>0.0002202671214218903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>9.584972333333333</v>
+      </c>
+      <c r="H19">
+        <v>28.754917</v>
+      </c>
+      <c r="I19">
+        <v>0.04040760763131526</v>
+      </c>
+      <c r="J19">
+        <v>0.04153699907496669</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.832376</v>
+      </c>
+      <c r="O19">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P19">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q19">
+        <v>2.659433643643556</v>
+      </c>
+      <c r="R19">
+        <v>23.934902792792</v>
+      </c>
+      <c r="S19">
+        <v>0.0002341223655572487</v>
+      </c>
+      <c r="T19">
+        <v>0.0003128504462281479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>11.8249499708566</v>
-      </c>
-      <c r="H13">
-        <v>11.8249499708566</v>
-      </c>
-      <c r="I13">
-        <v>0.07712294228370911</v>
-      </c>
-      <c r="J13">
-        <v>0.07712294228370911</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>13.6369725590517</v>
-      </c>
-      <c r="N13">
-        <v>13.6369725590517</v>
-      </c>
-      <c r="O13">
-        <v>0.2982242419302018</v>
-      </c>
-      <c r="P13">
-        <v>0.2982242419302018</v>
-      </c>
-      <c r="Q13">
-        <v>161.2565182647307</v>
-      </c>
-      <c r="R13">
-        <v>161.2565182647307</v>
-      </c>
-      <c r="S13">
-        <v>0.02299993099798586</v>
-      </c>
-      <c r="T13">
-        <v>0.02299993099798586</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>9.584972333333333</v>
+      </c>
+      <c r="H20">
+        <v>28.754917</v>
+      </c>
+      <c r="I20">
+        <v>0.04040760763131526</v>
+      </c>
+      <c r="J20">
+        <v>0.04153699907496669</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.267144</v>
+      </c>
+      <c r="N20">
+        <v>42.801432</v>
+      </c>
+      <c r="O20">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P20">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q20">
+        <v>136.7501805156827</v>
+      </c>
+      <c r="R20">
+        <v>1230.751624641144</v>
+      </c>
+      <c r="S20">
+        <v>0.01203875713509006</v>
+      </c>
+      <c r="T20">
+        <v>0.01608701728594256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>9.584972333333333</v>
+      </c>
+      <c r="H21">
+        <v>28.754917</v>
+      </c>
+      <c r="I21">
+        <v>0.04040760763131526</v>
+      </c>
+      <c r="J21">
+        <v>0.04153699907496669</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.102085</v>
+      </c>
+      <c r="N21">
+        <v>0.20417</v>
+      </c>
+      <c r="O21">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P21">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q21">
+        <v>0.9784819006483333</v>
+      </c>
+      <c r="R21">
+        <v>5.870891403889999</v>
+      </c>
+      <c r="S21">
+        <v>8.614033208998722E-05</v>
+      </c>
+      <c r="T21">
+        <v>7.673776707449634E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.520605</v>
+      </c>
+      <c r="H22">
+        <v>7.561814999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.01062617755080267</v>
+      </c>
+      <c r="J22">
+        <v>0.01092317890050141</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>33.0450625</v>
+      </c>
+      <c r="N22">
+        <v>66.090125</v>
+      </c>
+      <c r="O22">
+        <v>0.6900618971508313</v>
+      </c>
+      <c r="P22">
+        <v>0.5980240991764403</v>
+      </c>
+      <c r="Q22">
+        <v>83.29354976281249</v>
+      </c>
+      <c r="R22">
+        <v>499.7612985768749</v>
+      </c>
+      <c r="S22">
+        <v>0.007332720240168467</v>
+      </c>
+      <c r="T22">
+        <v>0.006532324222115453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.520605</v>
+      </c>
+      <c r="H23">
+        <v>7.561814999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.01062617755080267</v>
+      </c>
+      <c r="J23">
+        <v>0.01092317890050141</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.195349</v>
+      </c>
+      <c r="N23">
+        <v>0.586047</v>
+      </c>
+      <c r="O23">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P23">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q23">
+        <v>0.492397666145</v>
+      </c>
+      <c r="R23">
+        <v>4.431578995304999</v>
+      </c>
+      <c r="S23">
+        <v>4.334806648335647E-05</v>
+      </c>
+      <c r="T23">
+        <v>5.792467503122584E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.520605</v>
+      </c>
+      <c r="H24">
+        <v>7.561814999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.01062617755080267</v>
+      </c>
+      <c r="J24">
+        <v>0.01092317890050141</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.832376</v>
+      </c>
+      <c r="O24">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P24">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q24">
+        <v>0.6993637024933334</v>
+      </c>
+      <c r="R24">
+        <v>6.29427332244</v>
+      </c>
+      <c r="S24">
+        <v>6.156825337754538E-05</v>
+      </c>
+      <c r="T24">
+        <v>8.227174493477767E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.520605</v>
+      </c>
+      <c r="H25">
+        <v>7.561814999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.01062617755080267</v>
+      </c>
+      <c r="J25">
+        <v>0.01092317890050141</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.267144</v>
+      </c>
+      <c r="N25">
+        <v>42.801432</v>
+      </c>
+      <c r="O25">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P25">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q25">
+        <v>35.96183450212</v>
+      </c>
+      <c r="R25">
+        <v>323.65651051908</v>
+      </c>
+      <c r="S25">
+        <v>0.003165888264795932</v>
+      </c>
+      <c r="T25">
+        <v>0.004230478168937151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.520605</v>
+      </c>
+      <c r="H26">
+        <v>7.561814999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.01062617755080267</v>
+      </c>
+      <c r="J26">
+        <v>0.01092317890050141</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.102085</v>
+      </c>
+      <c r="N26">
+        <v>0.20417</v>
+      </c>
+      <c r="O26">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P26">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q26">
+        <v>0.257315961425</v>
+      </c>
+      <c r="R26">
+        <v>1.54389576855</v>
+      </c>
+      <c r="S26">
+        <v>2.265272597737099E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.01800894827981E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>14.2605715</v>
+      </c>
+      <c r="H27">
+        <v>28.521143</v>
+      </c>
+      <c r="I27">
+        <v>0.06011864799717386</v>
+      </c>
+      <c r="J27">
+        <v>0.04119930829249108</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>33.0450625</v>
+      </c>
+      <c r="N27">
+        <v>66.090125</v>
+      </c>
+      <c r="O27">
+        <v>0.6900618971508313</v>
+      </c>
+      <c r="P27">
+        <v>0.5980240991764403</v>
+      </c>
+      <c r="Q27">
+        <v>471.2414765032187</v>
+      </c>
+      <c r="R27">
+        <v>1884.965906012875</v>
+      </c>
+      <c r="S27">
+        <v>0.04148558829107282</v>
+      </c>
+      <c r="T27">
+        <v>0.02463817922830942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>14.2605715</v>
+      </c>
+      <c r="H28">
+        <v>28.521143</v>
+      </c>
+      <c r="I28">
+        <v>0.06011864799717386</v>
+      </c>
+      <c r="J28">
+        <v>0.04119930829249108</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.195349</v>
+      </c>
+      <c r="N28">
+        <v>0.586047</v>
+      </c>
+      <c r="O28">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P28">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q28">
+        <v>2.7857883819535</v>
+      </c>
+      <c r="R28">
+        <v>16.714730291721</v>
+      </c>
+      <c r="S28">
+        <v>0.0002452459633590581</v>
+      </c>
+      <c r="T28">
+        <v>0.0002184763763453776</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>14.2605715</v>
+      </c>
+      <c r="H29">
+        <v>28.521143</v>
+      </c>
+      <c r="I29">
+        <v>0.06011864799717386</v>
+      </c>
+      <c r="J29">
+        <v>0.04119930829249108</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.832376</v>
+      </c>
+      <c r="O29">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P29">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q29">
+        <v>3.956719154294667</v>
+      </c>
+      <c r="R29">
+        <v>23.740314925768</v>
+      </c>
+      <c r="S29">
+        <v>0.0003483284685306117</v>
+      </c>
+      <c r="T29">
+        <v>0.0003103070099102292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>14.2605715</v>
+      </c>
+      <c r="H30">
+        <v>28.521143</v>
+      </c>
+      <c r="I30">
+        <v>0.06011864799717386</v>
+      </c>
+      <c r="J30">
+        <v>0.04119930829249108</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>14.267144</v>
+      </c>
+      <c r="N30">
+        <v>42.801432</v>
+      </c>
+      <c r="O30">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P30">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q30">
+        <v>203.457627112796</v>
+      </c>
+      <c r="R30">
+        <v>1220.745762676776</v>
+      </c>
+      <c r="S30">
+        <v>0.01791132524181033</v>
+      </c>
+      <c r="T30">
+        <v>0.01595623177962363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14.2605715</v>
+      </c>
+      <c r="H31">
+        <v>28.521143</v>
+      </c>
+      <c r="I31">
+        <v>0.06011864799717386</v>
+      </c>
+      <c r="J31">
+        <v>0.04119930829249108</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.102085</v>
+      </c>
+      <c r="N31">
+        <v>0.20417</v>
+      </c>
+      <c r="O31">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P31">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q31">
+        <v>1.4557904415775</v>
+      </c>
+      <c r="R31">
+        <v>5.823161766309999</v>
+      </c>
+      <c r="S31">
+        <v>0.0001281600324010333</v>
+      </c>
+      <c r="T31">
+        <v>7.61138983024156E-05</v>
       </c>
     </row>
   </sheetData>
